--- a/_resource/excel/1001-玩家-属性重置.xlsx
+++ b/_resource/excel/1001-玩家-属性重置.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26310" windowHeight="13065"/>
+    <workbookView windowWidth="26340" windowHeight="13065"/>
   </bookViews>
   <sheets>
-    <sheet name="Reset" sheetId="1" r:id="rId1"/>
+    <sheet name="reset" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
@@ -22,7 +22,7 @@
     <author>lori</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0">
+    <comment ref="I2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>#reset</t>
   </si>
@@ -90,9 +90,6 @@
     <t>具体描述</t>
   </si>
   <si>
-    <t>服务器记录id</t>
-  </si>
-  <si>
     <t>时间类型</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
   </si>
   <si>
     <t>Descripe(string)</t>
-  </si>
-  <si>
-    <t>Id(int)</t>
   </si>
   <si>
     <t>TimeType(int)</t>
@@ -156,8 +150,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -180,6 +174,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -187,24 +189,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,36 +251,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,14 +266,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,9 +288,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,15 +303,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -311,21 +319,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,79 +375,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,103 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,6 +580,39 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,30 +647,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -662,8 +665,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -678,162 +681,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1297,35 +1291,34 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16" style="7" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="7" customWidth="1"/>
-    <col min="7" max="7" width="18.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="21.125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="18.25" style="7" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="7" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="7" customWidth="1"/>
-    <col min="12" max="13" width="17.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="19.125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="17.125" style="7" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="7" customWidth="1"/>
-    <col min="17" max="17" width="16.25" style="7" customWidth="1"/>
-    <col min="18" max="18" width="19.625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="16" style="7" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="7"/>
+    <col min="3" max="3" width="16.5" style="7" customWidth="1"/>
+    <col min="4" max="4" width="16" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="7" customWidth="1"/>
+    <col min="9" max="9" width="12.75" style="7" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="7" customWidth="1"/>
+    <col min="11" max="12" width="17.125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="19.125" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16.25" style="7" customWidth="1"/>
+    <col min="17" max="17" width="19.625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="16" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:2">
@@ -1333,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:11">
+    <row r="2" s="2" customFormat="1" spans="1:10">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1364,11 +1357,8 @@
       <c r="J2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:11">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:10">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1399,80 +1389,74 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:16">
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:15">
       <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>22</v>
-      </c>
+      <c r="K4" s="13"/>
       <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:10">
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:9">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
-      <c r="G5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:10">
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:9">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="H6" s="9"/>
       <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:10">
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:9">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="H7" s="9"/>
       <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:7">
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:6">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="G8" s="11"/>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:7">
+      <c r="F8" s="11"/>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:6">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="G9" s="11"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" s="6" customFormat="1" spans="1:2">
       <c r="A10" s="1"/>

--- a/_resource/excel/1001-玩家-属性重置.xlsx
+++ b/_resource/excel/1001-玩家-属性重置.xlsx
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0">
+    <comment ref="G2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>#reset</t>
   </si>
@@ -90,13 +90,7 @@
     <t>具体描述</t>
   </si>
   <si>
-    <t>时间类型</t>
-  </si>
-  <si>
-    <t>时间数值</t>
-  </si>
-  <si>
-    <t>几点小时</t>
+    <t>时间Id</t>
   </si>
   <si>
     <t>父属性名称</t>
@@ -120,13 +114,7 @@
     <t>Descripe(string)</t>
   </si>
   <si>
-    <t>TimeType(int)</t>
-  </si>
-  <si>
-    <t>TimeValue(int)</t>
-  </si>
-  <si>
-    <t>TimeHour(int)</t>
+    <t>TimeId(int)</t>
   </si>
   <si>
     <t>ParentName(string)</t>
@@ -150,9 +138,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -174,6 +162,49 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -183,9 +214,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -197,8 +228,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,51 +259,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,32 +281,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,29 +307,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -375,67 +363,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,49 +519,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,61 +543,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,11 +581,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,36 +640,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,15 +661,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -689,10 +677,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -701,133 +689,133 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1291,12 +1279,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1304,21 +1292,19 @@
     <col min="1" max="1" width="21.5" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.25" style="7" customWidth="1"/>
     <col min="3" max="3" width="16.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="16" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="7" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="7" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="7" customWidth="1"/>
-    <col min="9" max="9" width="12.75" style="7" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="7" customWidth="1"/>
-    <col min="11" max="12" width="17.125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="19.125" style="7" customWidth="1"/>
-    <col min="14" max="14" width="17.125" style="7" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="7" customWidth="1"/>
-    <col min="16" max="16" width="16.25" style="7" customWidth="1"/>
-    <col min="17" max="17" width="19.625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="16" style="7" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="7"/>
+    <col min="4" max="4" width="18.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="7" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="7" customWidth="1"/>
+    <col min="9" max="10" width="17.125" style="7" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17.125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="8.375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="16.25" style="7" customWidth="1"/>
+    <col min="15" max="15" width="19.625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="16" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="2:2">
@@ -1326,7 +1312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:10">
+    <row r="2" s="2" customFormat="1" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1351,14 +1337,8 @@
       <c r="H2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" spans="1:10">
+    </row>
+    <row r="3" s="1" customFormat="1" spans="1:8">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1383,80 +1363,68 @@
       <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" s="3" customFormat="1" spans="1:15">
+    </row>
+    <row r="4" s="3" customFormat="1" spans="1:13">
       <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" s="4" customFormat="1" spans="1:9">
+    </row>
+    <row r="5" s="4" customFormat="1" spans="1:7">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
+      <c r="D5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" s="4" customFormat="1" spans="1:9">
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" s="4" customFormat="1" spans="1:7">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
+      <c r="D6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" s="4" customFormat="1" spans="1:9">
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="1:7">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
+      <c r="D7" s="9"/>
       <c r="F7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" s="5" customFormat="1" spans="1:6">
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" s="5" customFormat="1" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" s="5" customFormat="1" spans="1:6">
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" s="5" customFormat="1" spans="1:4">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
-      <c r="F9" s="11"/>
+      <c r="D9" s="11"/>
     </row>
     <row r="10" s="6" customFormat="1" spans="1:2">
       <c r="A10" s="1"/>
